--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Jag2-Notch1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Jag2-Notch1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.00567309947927</v>
+        <v>12.97098566666667</v>
       </c>
       <c r="H2">
-        <v>5.00567309947927</v>
+        <v>38.91295700000001</v>
       </c>
       <c r="I2">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134716</v>
       </c>
       <c r="J2">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134717</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N2">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O2">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P2">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q2">
-        <v>221.3330389075064</v>
+        <v>617.1460514315256</v>
       </c>
       <c r="R2">
-        <v>221.3330389075064</v>
+        <v>5554.314462883731</v>
       </c>
       <c r="S2">
-        <v>0.2252077100183439</v>
+        <v>0.328233684447866</v>
       </c>
       <c r="T2">
-        <v>0.2252077100183439</v>
+        <v>0.3282336844478661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.00567309947927</v>
+        <v>12.97098566666667</v>
       </c>
       <c r="H3">
-        <v>5.00567309947927</v>
+        <v>38.91295700000001</v>
       </c>
       <c r="I3">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134716</v>
       </c>
       <c r="J3">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134717</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N3">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O3">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P3">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q3">
-        <v>49.05854664026953</v>
+        <v>127.5012047876275</v>
       </c>
       <c r="R3">
-        <v>49.05854664026953</v>
+        <v>1147.510843088647</v>
       </c>
       <c r="S3">
-        <v>0.04991736886737573</v>
+        <v>0.06781245723262684</v>
       </c>
       <c r="T3">
-        <v>0.04991736886737573</v>
+        <v>0.06781245723262687</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.00567309947927</v>
+        <v>12.97098566666667</v>
       </c>
       <c r="H4">
-        <v>5.00567309947927</v>
+        <v>38.91295700000001</v>
       </c>
       <c r="I4">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134716</v>
       </c>
       <c r="J4">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134717</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N4">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O4">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P4">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q4">
-        <v>52.37162912454545</v>
+        <v>141.8203990281494</v>
       </c>
       <c r="R4">
-        <v>52.37162912454545</v>
+        <v>1276.383591253344</v>
       </c>
       <c r="S4">
-        <v>0.05328845039713085</v>
+        <v>0.07542822642209018</v>
       </c>
       <c r="T4">
-        <v>0.05328845039713085</v>
+        <v>0.0754282264220902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.00567309947927</v>
+        <v>12.97098566666667</v>
       </c>
       <c r="H5">
-        <v>5.00567309947927</v>
+        <v>38.91295700000001</v>
       </c>
       <c r="I5">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134716</v>
       </c>
       <c r="J5">
-        <v>0.5177989704817396</v>
+        <v>0.7291028508134717</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N5">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O5">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P5">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q5">
-        <v>186.1270878424841</v>
+        <v>484.3939192553325</v>
       </c>
       <c r="R5">
-        <v>186.1270878424841</v>
+        <v>4359.545273297992</v>
       </c>
       <c r="S5">
-        <v>0.1893854411988891</v>
+        <v>0.2576284827108885</v>
       </c>
       <c r="T5">
-        <v>0.1893854411988891</v>
+        <v>0.2576284827108886</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9432936425815041</v>
+        <v>1.047813333333333</v>
       </c>
       <c r="H6">
-        <v>0.9432936425815041</v>
+        <v>3.14344</v>
       </c>
       <c r="I6">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308234</v>
       </c>
       <c r="J6">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308236</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N6">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O6">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P6">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q6">
-        <v>41.70908574042014</v>
+        <v>49.85387216684443</v>
       </c>
       <c r="R6">
-        <v>41.70908574042014</v>
+        <v>448.6848495016</v>
       </c>
       <c r="S6">
-        <v>0.04243924780919914</v>
+        <v>0.02651515003192381</v>
       </c>
       <c r="T6">
-        <v>0.04243924780919914</v>
+        <v>0.02651515003192381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9432936425815041</v>
+        <v>1.047813333333333</v>
       </c>
       <c r="H7">
-        <v>0.9432936425815041</v>
+        <v>3.14344</v>
       </c>
       <c r="I7">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308234</v>
       </c>
       <c r="J7">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308236</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N7">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O7">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P7">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q7">
-        <v>9.244833659806613</v>
+        <v>10.29971552091556</v>
       </c>
       <c r="R7">
-        <v>9.244833659806613</v>
+        <v>92.69743968824</v>
       </c>
       <c r="S7">
-        <v>0.009406674341536556</v>
+        <v>0.005477979752690819</v>
       </c>
       <c r="T7">
-        <v>0.009406674341536556</v>
+        <v>0.005477979752690821</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9432936425815041</v>
+        <v>1.047813333333333</v>
       </c>
       <c r="H8">
-        <v>0.9432936425815041</v>
+        <v>3.14344</v>
       </c>
       <c r="I8">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308234</v>
       </c>
       <c r="J8">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308236</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N8">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O8">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P8">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q8">
-        <v>9.869167207494879</v>
+        <v>11.45643892138667</v>
       </c>
       <c r="R8">
-        <v>9.869167207494879</v>
+        <v>103.10795029248</v>
       </c>
       <c r="S8">
-        <v>0.01004193751442988</v>
+        <v>0.006093191634453662</v>
       </c>
       <c r="T8">
-        <v>0.01004193751442988</v>
+        <v>0.006093191634453664</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9432936425815041</v>
+        <v>1.047813333333333</v>
       </c>
       <c r="H9">
-        <v>0.9432936425815041</v>
+        <v>3.14344</v>
       </c>
       <c r="I9">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308234</v>
       </c>
       <c r="J9">
-        <v>0.09757658306561887</v>
+        <v>0.05889789011308236</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N9">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O9">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P9">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q9">
-        <v>35.07470327862378</v>
+        <v>39.12997980451555</v>
       </c>
       <c r="R9">
-        <v>35.07470327862378</v>
+        <v>352.16981824064</v>
       </c>
       <c r="S9">
-        <v>0.03568872340045329</v>
+        <v>0.02081156869401405</v>
       </c>
       <c r="T9">
-        <v>0.03568872340045329</v>
+        <v>0.02081156869401406</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.27155760860455</v>
+        <v>1.312552</v>
       </c>
       <c r="H10">
-        <v>1.27155760860455</v>
+        <v>3.937656</v>
       </c>
       <c r="I10">
-        <v>0.1315330041652444</v>
+        <v>0.07377892703252469</v>
       </c>
       <c r="J10">
-        <v>0.1315330041652444</v>
+        <v>0.0737789270325247</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N10">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O10">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P10">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q10">
-        <v>56.22374934705265</v>
+        <v>62.44986348109332</v>
       </c>
       <c r="R10">
-        <v>56.22374934705265</v>
+        <v>562.04877132984</v>
       </c>
       <c r="S10">
-        <v>0.05720800609612766</v>
+        <v>0.03321442102095315</v>
       </c>
       <c r="T10">
-        <v>0.05720800609612766</v>
+        <v>0.03321442102095316</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.27155760860455</v>
+        <v>1.312552</v>
       </c>
       <c r="H11">
-        <v>1.27155760860455</v>
+        <v>3.937656</v>
       </c>
       <c r="I11">
-        <v>0.1315330041652444</v>
+        <v>0.07377892703252469</v>
       </c>
       <c r="J11">
-        <v>0.1315330041652444</v>
+        <v>0.0737789270325247</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N11">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O11">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P11">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q11">
-        <v>12.46201400047583</v>
+        <v>12.90202345813067</v>
       </c>
       <c r="R11">
-        <v>12.46201400047583</v>
+        <v>116.118211123176</v>
       </c>
       <c r="S11">
-        <v>0.01268017485828917</v>
+        <v>0.006862036444488052</v>
       </c>
       <c r="T11">
-        <v>0.01268017485828917</v>
+        <v>0.006862036444488054</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.27155760860455</v>
+        <v>1.312552</v>
       </c>
       <c r="H12">
-        <v>1.27155760860455</v>
+        <v>3.937656</v>
       </c>
       <c r="I12">
-        <v>0.1315330041652444</v>
+        <v>0.07377892703252469</v>
       </c>
       <c r="J12">
-        <v>0.1315330041652444</v>
+        <v>0.0737789270325247</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N12">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O12">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P12">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q12">
-        <v>13.30361415236225</v>
+        <v>14.351002550528</v>
       </c>
       <c r="R12">
-        <v>13.30361415236225</v>
+        <v>129.159022954752</v>
       </c>
       <c r="S12">
-        <v>0.01353650811921113</v>
+        <v>0.007632686674011997</v>
       </c>
       <c r="T12">
-        <v>0.01353650811921113</v>
+        <v>0.007632686674011999</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.27155760860455</v>
+        <v>1.312552</v>
       </c>
       <c r="H13">
-        <v>1.27155760860455</v>
+        <v>3.937656</v>
       </c>
       <c r="I13">
-        <v>0.1315330041652444</v>
+        <v>0.07377892703252469</v>
       </c>
       <c r="J13">
-        <v>0.1315330041652444</v>
+        <v>0.0737789270325247</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N13">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O13">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P13">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q13">
-        <v>47.28061741349801</v>
+        <v>49.01649140977066</v>
       </c>
       <c r="R13">
-        <v>47.28061741349801</v>
+        <v>441.148422687936</v>
       </c>
       <c r="S13">
-        <v>0.04810831509161644</v>
+        <v>0.02606978289307148</v>
       </c>
       <c r="T13">
-        <v>0.04810831509161644</v>
+        <v>0.02606978289307149</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.44668895959327</v>
+        <v>2.458986333333333</v>
       </c>
       <c r="H14">
-        <v>2.44668895959327</v>
+        <v>7.376958999999999</v>
       </c>
       <c r="I14">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="J14">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N14">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O14">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P14">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q14">
-        <v>108.1838729629704</v>
+        <v>116.9960205908344</v>
       </c>
       <c r="R14">
-        <v>108.1838729629704</v>
+        <v>1052.96418531751</v>
       </c>
       <c r="S14">
-        <v>0.1100777471414355</v>
+        <v>0.06222519744749402</v>
       </c>
       <c r="T14">
-        <v>0.1100777471414355</v>
+        <v>0.06222519744749404</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.44668895959327</v>
+        <v>2.458986333333333</v>
       </c>
       <c r="H15">
-        <v>2.44668895959327</v>
+        <v>7.376958999999999</v>
       </c>
       <c r="I15">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="J15">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N15">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O15">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P15">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q15">
-        <v>23.97899384418962</v>
+        <v>24.17115615677655</v>
       </c>
       <c r="R15">
-        <v>23.97899384418962</v>
+        <v>217.540405410989</v>
       </c>
       <c r="S15">
-        <v>0.02439877172811349</v>
+        <v>0.01285560788131166</v>
       </c>
       <c r="T15">
-        <v>0.02439877172811349</v>
+        <v>0.01285560788131166</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.44668895959327</v>
+        <v>2.458986333333333</v>
       </c>
       <c r="H16">
-        <v>2.44668895959327</v>
+        <v>7.376958999999999</v>
       </c>
       <c r="I16">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="J16">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N16">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O16">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P16">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q16">
-        <v>25.59837293175788</v>
+        <v>26.88573034925867</v>
       </c>
       <c r="R16">
-        <v>25.59837293175788</v>
+        <v>241.971573143328</v>
       </c>
       <c r="S16">
-        <v>0.02604649977523639</v>
+        <v>0.01429937420994441</v>
       </c>
       <c r="T16">
-        <v>0.02604649977523639</v>
+        <v>0.01429937420994441</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.44668895959327</v>
+        <v>2.458986333333333</v>
       </c>
       <c r="H17">
-        <v>2.44668895959327</v>
+        <v>7.376958999999999</v>
       </c>
       <c r="I17">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="J17">
-        <v>0.2530914422873971</v>
+        <v>0.1382203320409214</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N17">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O17">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P17">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q17">
-        <v>90.97579523377715</v>
+        <v>91.82941512761154</v>
       </c>
       <c r="R17">
-        <v>90.97579523377715</v>
+        <v>826.4647361485039</v>
       </c>
       <c r="S17">
-        <v>0.09256842364261174</v>
+        <v>0.04884015250217126</v>
       </c>
       <c r="T17">
-        <v>0.09256842364261174</v>
+        <v>0.04884015250217127</v>
       </c>
     </row>
   </sheetData>
